--- a/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
+++ b/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>ID_Persona</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Ventas</t>
+  </si>
+  <si>
+    <t>salarioBase</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Puede agregar empleados,productos, zonas, etc</t>
+  </si>
+  <si>
+    <t>Solo puede vender</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -693,12 +705,12 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -723,8 +735,16 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -749,8 +769,16 @@
       <c r="H3" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="1">
+        <v>500000</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -775,8 +803,16 @@
       <c r="H4" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="1">
+        <v>500000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -801,8 +837,16 @@
       <c r="H5" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="H6" s="4"/>
@@ -810,7 +854,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -820,7 +864,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>85</v>
       </c>
@@ -832,7 +876,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -856,7 +900,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>62091232</v>
       </c>
@@ -880,7 +924,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>14358765</v>
       </c>
@@ -904,7 +948,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>73950274</v>
       </c>
@@ -928,7 +972,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12345436</v>
       </c>
@@ -950,7 +994,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>88940376</v>
       </c>
@@ -971,7 +1015,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>

--- a/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
+++ b/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>ID_Persona</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Solo puede vender</t>
+  </si>
+  <si>
+    <t>RelacionPersona</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -874,7 +877,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
@@ -895,10 +900,12 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -919,10 +926,12 @@
       <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="I10" s="1">
+        <v>62091232</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -943,10 +952,12 @@
       <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="I11" s="1">
+        <v>14358765</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -967,10 +978,12 @@
       <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="I12" s="1">
+        <v>73950274</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
@@ -991,8 +1004,8 @@
       <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -1013,7 +1026,7 @@
       <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="4"/>

--- a/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
+++ b/PhpProjectVenta/docs/6-august-2017/NormalizacionSistemaVentas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>ID_Persona</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Tipo_Usuario</t>
-  </si>
-  <si>
     <t>Contraseña</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Castro</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
@@ -309,7 +303,7 @@
     <t>Solo puede vender</t>
   </si>
   <si>
-    <t>RelacionPersona</t>
+    <t>TipoEmpleado</t>
   </si>
 </sst>
 </file>
@@ -677,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -704,152 +698,144 @@
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>62091232</v>
+      </c>
+      <c r="D3" s="1">
+        <v>207210905</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1244251234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14358765</v>
+      </c>
+      <c r="D4" s="1">
+        <v>109870234</v>
+      </c>
+      <c r="E4" s="1">
+        <v>54321</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1265748392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1">
-        <v>207210905</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1244251234</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>73950274</v>
+      </c>
+      <c r="D5" s="1">
+        <v>304560948</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
         <v>23</v>
       </c>
-      <c r="I3" s="1">
-        <v>500000</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1">
-        <v>109870234</v>
-      </c>
-      <c r="C4" s="1">
-        <v>54321</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1265748392</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>500000</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1">
-        <v>304560948</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1">
         <v>1241454634</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1">
-        <v>300000</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="H6" s="4"/>
@@ -857,7 +843,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -867,9 +853,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -877,16 +863,13 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -895,203 +878,196 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>62091232</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="1">
-        <v>62091232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>14358765</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="1">
-        <v>14358765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>73950274</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1">
-        <v>73950274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12345436</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>88940376</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1">
         <v>2500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J19" s="1">
         <v>9000</v>
@@ -1099,26 +1075,26 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1">
         <v>4500</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J20" s="1">
         <v>500</v>
@@ -1126,26 +1102,26 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
         <v>1700</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1">
         <v>1700</v>
@@ -1153,26 +1129,26 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
         <v>5000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J22" s="1">
         <v>2000</v>
@@ -1180,62 +1156,62 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>2000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
         <v>12345436</v>
@@ -1246,16 +1222,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>1000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
         <v>12345436</v>
@@ -1266,16 +1242,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>1000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1">
         <v>88940376</v>
@@ -1286,16 +1262,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>500</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1">
         <v>12345436</v>
@@ -1306,7 +1282,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1">
         <v>88940376</v>
@@ -1317,36 +1293,36 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I35" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1354,16 +1330,16 @@
         <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1">
         <v>6500</v>
@@ -1375,7 +1351,7 @@
         <v>3500</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1383,16 +1359,16 @@
         <v>507</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1">
         <v>3500</v>
@@ -1404,7 +1380,7 @@
         <v>500</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1412,16 +1388,16 @@
         <v>300</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1">
         <v>6100</v>
@@ -1433,7 +1409,7 @@
         <v>900</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1441,16 +1417,16 @@
         <v>209</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1">
         <v>5500</v>
@@ -1462,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1470,16 +1446,16 @@
         <v>602</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
         <v>6000</v>
@@ -1491,14 +1467,14 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
